--- a/ReportExport-2025-01-01_2025-01-31.xlsx
+++ b/ReportExport-2025-01-01_2025-01-31.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t xml:space="preserve">Work Hour Log Details</t>
   </si>
@@ -33,67 +33,61 @@
     <t xml:space="preserve">Log Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrew Bulat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brama XS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking information. Emailing regarding upcoming Brama update. Checking tickets in Remedy system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evresys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking CI and build nodes. Cleanup the nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQMessenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on the issues OP-2163, OP-2345, IQ-13539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collecting information for tickets in Remedy system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on the issues OP-2163, OP-2554, IQ-13567, IQ-13547, IQ-13566, IQ-13504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating the problem on Production (related to ticket in Remedy system). Collecting logs from Production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on the issues OP-2163, OP-2554, IQ-13504</t>
+    <t xml:space="preserve">Ilona Panchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityAssets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile version of the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcards for Ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATAQ Resistance Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One pager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comforta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving "Events"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infographics</t>
   </si>
   <si>
     <t xml:space="preserve">03:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem on Production (related to ticket in Remedy system). Analyzing the logs collected from Production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on the issue IQ-13504</t>
+    <t xml:space="preserve">Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesign</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date 01.01.2025</t>
@@ -182,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
@@ -202,6 +196,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -240,9 +236,9 @@
   <cols>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -275,7 +271,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>45663</v>
+        <v>45659</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -289,13 +285,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45660</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="10">
-        <v>45663</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -309,13 +305,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="12">
-        <v>45663</v>
+        <v>45660</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -323,16 +319,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -340,16 +336,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="16">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -357,16 +353,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18">
-        <v>45665</v>
+        <v>45663</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -374,16 +370,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="20">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -391,16 +387,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -408,26 +404,43 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="24">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="26">
+        <v>45665</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ReportExport-2025-01-01_2025-01-31.xlsx
+++ b/ReportExport-2025-01-01_2025-01-31.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t xml:space="preserve">Work Hour Log Details</t>
   </si>
@@ -33,61 +33,34 @@
     <t xml:space="preserve">Log Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilona Panchuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CityAssets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile version of the website</t>
+    <t xml:space="preserve">Oleksandr Voroshchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQMessenger</t>
   </si>
   <si>
     <t xml:space="preserve">4:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcards for Ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATAQ Resistance Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One pager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comforta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving "Events"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infographics</t>
+    <t xml:space="preserve">IQ-13422 · Add audit logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13569 · After cluster update, incorrect cluster data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13547 · Сertificate information on the ‘SSL Certificate’ screen</t>
   </si>
   <si>
     <t xml:space="preserve">03:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redesign</t>
+    <t xml:space="preserve">08:00</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date 01.01.2025</t>
@@ -176,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
@@ -196,14 +169,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -236,9 +201,9 @@
   <cols>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -271,7 +236,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>45659</v>
+        <v>45663</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -288,7 +253,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="10">
-        <v>45660</v>
+        <v>45664</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -302,13 +267,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45664</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45660</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -319,16 +284,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45664</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14">
-        <v>45663</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -339,13 +304,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="16">
-        <v>45663</v>
+        <v>45665</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -353,94 +318,26 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>45663</v>
+        <v>45666</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="20">
-        <v>45664</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="22">
-        <v>45664</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="24">
-        <v>45665</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="26">
-        <v>45665</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="28" t="s">
-        <v>26</v>
+      <c r="A13" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ReportExport-2025-01-01_2025-01-31.xlsx
+++ b/ReportExport-2025-01-01_2025-01-31.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Work Hour Log Details</t>
   </si>
@@ -33,40 +33,76 @@
     <t xml:space="preserve">Log Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksandr Voroshchuk</t>
+    <t xml:space="preserve">Andrew Bulat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brama XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking information. Emailing regarding upcoming Brama update. Checking tickets in Remedy system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evresys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking CI and build nodes. Cleanup the nodes.</t>
   </si>
   <si>
     <t xml:space="preserve">IQMessenger</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ-13422 · Add audit logging</t>
+    <t xml:space="preserve">3:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issues OP-2163, OP-2345, IQ-13539</t>
   </si>
   <si>
     <t xml:space="preserve">01:00</t>
   </si>
   <si>
-    <t xml:space="preserve">IQ-13569 · After cluster update, incorrect cluster data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ-13547 · Сertificate information on the ‘SSL Certificate’ screen</t>
+    <t xml:space="preserve">Collecting information for tickets in Remedy system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issues OP-2163, OP-2554, IQ-13567, IQ-13547, IQ-13566, IQ-13504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigating the problem on Production (related to ticket in Remedy system). Collecting logs from Production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issues OP-2163, OP-2554, IQ-13504</t>
   </si>
   <si>
     <t xml:space="preserve">03:00</t>
   </si>
   <si>
-    <t xml:space="preserve">08:00</t>
+    <t xml:space="preserve">Investigating the problem on Production (related to ticket in Remedy system). Analyzing the logs collected from Production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issue IQ-13504</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date 01.01.2025</t>
   </si>
   <si>
     <t xml:space="preserve">End Date 31.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total 32:30 </t>
   </si>
 </sst>
 </file>
@@ -74,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -116,6 +152,11 @@
       <b/>
       <sz val="13"/>
       <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -149,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
@@ -181,10 +222,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -203,7 +253,7 @@
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,13 +300,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -267,16 +317,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -290,10 +340,10 @@
         <v>45664</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -301,16 +351,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="16">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -321,23 +371,79 @@
         <v>7</v>
       </c>
       <c r="C9" s="18">
+        <v>45665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20">
+        <v>45665</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22">
         <v>45666</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>17</v>
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24">
+        <v>45666</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
